--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis.berg\PycharmProjects\python-gui-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D16699-C892-429B-B8DF-24FE2D24526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF221B6-FBD8-4923-985C-B27913EC87DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{1554EC24-F2AE-4DA9-B11B-B3E12D2F4849}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{3394B72A-6D02-447B-8F8B-F59E3B43A511}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -38,34 +38,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>group 0</t>
-  </si>
-  <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>group 3</t>
-  </si>
-  <si>
-    <t>group 4</t>
-  </si>
-  <si>
-    <t>group 5</t>
-  </si>
-  <si>
-    <t>group 6</t>
-  </si>
-  <si>
-    <t>group 7</t>
-  </si>
-  <si>
-    <t>group 8</t>
-  </si>
-  <si>
-    <t>group 9</t>
+    <t>group 2Y F6H~U</t>
+  </si>
+  <si>
+    <t>group 7i Q+&amp;</t>
+  </si>
+  <si>
+    <t>group  6x yk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group A Y o </t>
+  </si>
+  <si>
+    <t>group $ko</t>
+  </si>
+  <si>
+    <t>group /L;@</t>
+  </si>
+  <si>
+    <t>group ~R qo</t>
+  </si>
+  <si>
+    <t>group t9A}f01</t>
+  </si>
+  <si>
+    <t>group V*}E~0wJ-</t>
+  </si>
+  <si>
+    <t>group C^</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0484342-B306-41A8-BFEA-1763079D9345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8311105E-23B8-49C2-8E6D-6FB0E8ADD367}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
